--- a/Results understanding/Plots_&_Averages.xlsx
+++ b/Results understanding/Plots_&_Averages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\N_Queen_Problem\Results understanding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7861109-7CD5-46E6-8C89-1D22546CA45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2870C979-79F7-4E0D-A7E4-AF5090AF8F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7B0F1560-51C3-4647-9934-AFE4A65548A5}"/>
   </bookViews>
@@ -150,16 +150,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -169,9 +162,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -179,16 +169,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -222,6 +221,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Time Vs Algorithms</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -262,11 +286,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$2</c:f>
+              <c:f>Sheet1!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N</c:v>
+                  <c:v>Simulated Annealing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -295,29 +319,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$8</c:f>
+              <c:f>Sheet1!$G$3:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>3.3750000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>2.4350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>11.353999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>82.71</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200</c:v>
+                  <c:v>1021.545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -334,11 +379,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$2</c:f>
+              <c:f>Sheet1!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Simulated Annealing</c:v>
+                  <c:v>Genetic Algorithm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -367,26 +412,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$8</c:f>
+              <c:f>Sheet1!$H$3:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.3750000000000002E-2</c:v>
+                  <c:v>0.1575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.475000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4350000000000001</c:v>
+                  <c:v>40.000999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.353999999999999</c:v>
+                  <c:v>335.56299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82.71</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1021.545</c:v>
+                  <c:v>7590.2929999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -403,11 +472,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$2</c:f>
+              <c:f>Sheet1!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Genetic Algorithm</c:v>
+                  <c:v>Hill Climbing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -436,26 +505,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$8</c:f>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.1575</c:v>
+                  <c:v>4.3636363999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4059999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.475000000000001</c:v>
+                  <c:v>66.602000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.000999999999998</c:v>
+                  <c:v>1763.5909999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>335.56299999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7590.2929999999997</c:v>
+                  <c:v>4401.7219999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -472,11 +565,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$2</c:f>
+              <c:f>Sheet1!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hill Climbing</c:v>
+                  <c:v>DFS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -505,26 +598,38 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$8</c:f>
+              <c:f>Sheet1!$J$3:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.3636363999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.4059999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>66.602000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1763.5909999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4401.7219999999998</c:v>
+                  <c:v>1.1900000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,66 +638,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7E18-4529-AC7C-244B1BAB4CAA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DFS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$3:$J$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.1900000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.168990000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7E18-4529-AC7C-244B1BAB4CAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -616,6 +661,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -813,6 +859,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Memory Utilisation Vs Algorithms</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -849,83 +920,11 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>N</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$12:$F$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3AA5-4AAF-8082-77672FE6FDE6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$11</c:f>
+              <c:f>Sheet1!$G$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -958,25 +957,49 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$11:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$12:$G$17</c:f>
+              <c:f>Sheet1!$G$11:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.46899999999999997</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.996</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.996</c:v>
+                  <c:v>1.496</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.496</c:v>
+                  <c:v>2.8239999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8239999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>5.4130000000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -991,10 +1014,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$11</c:f>
+              <c:f>Sheet1!$H$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1027,25 +1050,49 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$11:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$12:$H$17</c:f>
+              <c:f>Sheet1!$H$11:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>26.51</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>166.39142860000001</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>166.39142860000001</c:v>
+                  <c:v>476.387</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>476.387</c:v>
+                  <c:v>1752.1669999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1752.1669999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>6512.6880000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -1060,10 +1107,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$11</c:f>
+              <c:f>Sheet1!$I$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1096,25 +1143,49 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$11:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$12:$I$17</c:f>
+              <c:f>Sheet1!$I$11:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>27.981818180000001</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>536.22299999999996</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>536.22299999999996</c:v>
+                  <c:v>2511.306</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2511.306</c:v>
+                  <c:v>17886.062999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17886.062999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>18411.819</c:v>
                 </c:pt>
               </c:numCache>
@@ -1129,10 +1200,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$11</c:f>
+              <c:f>Sheet1!$J$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1165,17 +1236,38 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$11:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$12:$J$17</c:f>
+              <c:f>Sheet1!$J$11:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.64200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1207,6 +1299,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1404,6 +1497,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Generations/Steps</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> Vs Algorithms</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1440,83 +1562,11 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>N</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$21:$F$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5762-4B08-B06E-CEA8179297CE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$20</c:f>
+              <c:f>Sheet1!$G$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1549,25 +1599,49 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$19:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$21:$G$26</c:f>
+              <c:f>Sheet1!$G$19:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>218.875</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4350000000000001</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4350000000000001</c:v>
+                  <c:v>412.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>412.1</c:v>
+                  <c:v>361.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>361.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>450.08333329999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -1582,10 +1656,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$20</c:f>
+              <c:f>Sheet1!$H$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1618,25 +1692,49 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$19:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$21:$H$26</c:f>
+              <c:f>Sheet1!$H$19:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>48.75</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>508.85714289999999</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>508.85714289999999</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>147</c:v>
+                  <c:v>135.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>135.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>444.3</c:v>
                 </c:pt>
               </c:numCache>
@@ -1651,10 +1749,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$20</c:f>
+              <c:f>Sheet1!$I$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1687,25 +1785,49 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$19:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$21:$I$26</c:f>
+              <c:f>Sheet1!$I$19:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>27.272727270000001</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.4</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.4</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.5</c:v>
+                  <c:v>70.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>169.7</c:v>
                 </c:pt>
               </c:numCache>
@@ -1720,10 +1842,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$20</c:f>
+              <c:f>Sheet1!$J$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1756,17 +1878,38 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$19:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$21:$J$26</c:f>
+              <c:f>Sheet1!$J$19:$J$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>199636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1798,6 +1941,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3614,15 +3758,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>604837</xdr:colOff>
+      <xdr:colOff>555142</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>53630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:colOff>97942</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4041,8 +4185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB79973-BBA7-5248-BA62-CB3CDF5F17DD}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4056,700 +4200,673 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="8">
         <v>10</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="8">
         <v>3.3750000000000002E-2</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="8">
         <v>0.1575</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="8">
         <v>4.3636363999999997E-2</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="8">
         <v>1.1900000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="5">
         <v>30</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="5">
         <v>2.4350000000000001</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="5">
         <v>0.99600000000000011</v>
       </c>
       <c r="D4">
         <v>2.4350000000000001</v>
       </c>
-      <c r="F4" s="14">
-        <v>20</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14">
-        <v>13.168990000000001</v>
-      </c>
+      <c r="F4" s="8">
+        <v>30</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2.4350000000000001</v>
+      </c>
+      <c r="H4" s="8">
+        <v>32.475000000000001</v>
+      </c>
+      <c r="I4" s="8">
+        <v>7.4059999999999997</v>
+      </c>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="5">
         <v>10</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="5">
         <v>3.3750000000000002E-2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="6">
         <v>0.46874999999999989</v>
       </c>
       <c r="D5">
         <v>218.875</v>
       </c>
-      <c r="F5" s="14">
-        <v>30</v>
-      </c>
-      <c r="G5" s="14">
-        <v>2.4350000000000001</v>
-      </c>
-      <c r="H5" s="14">
-        <v>32.475000000000001</v>
-      </c>
-      <c r="I5" s="14">
-        <v>7.4059999999999997</v>
-      </c>
-      <c r="J5" s="14"/>
+      <c r="F5" s="8">
+        <v>50</v>
+      </c>
+      <c r="G5" s="8">
+        <v>11.353999999999999</v>
+      </c>
+      <c r="H5" s="8">
+        <v>40.000999999999998</v>
+      </c>
+      <c r="I5" s="8">
+        <v>66.602000000000004</v>
+      </c>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="5">
         <v>50</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="5">
         <v>11.353999999999999</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="5">
         <v>1.496</v>
       </c>
       <c r="D6">
         <v>412.1</v>
       </c>
-      <c r="F6" s="14">
-        <v>50</v>
-      </c>
-      <c r="G6" s="14">
-        <v>11.353999999999999</v>
-      </c>
-      <c r="H6" s="14">
-        <v>40.000999999999998</v>
-      </c>
-      <c r="I6" s="14">
-        <v>66.602000000000004</v>
-      </c>
-      <c r="J6" s="14"/>
+      <c r="F6" s="8">
+        <v>100</v>
+      </c>
+      <c r="G6" s="8">
+        <v>82.71</v>
+      </c>
+      <c r="H6" s="8">
+        <v>335.56299999999999</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1763.5909999999999</v>
+      </c>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="5">
         <v>100</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="5">
         <v>82.710000000000008</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <v>2.8240000000000003</v>
       </c>
       <c r="D7">
         <v>361.1</v>
       </c>
-      <c r="F7" s="14">
-        <v>100</v>
-      </c>
-      <c r="G7" s="14">
-        <v>82.71</v>
-      </c>
-      <c r="H7" s="14">
-        <v>335.56299999999999</v>
-      </c>
-      <c r="I7" s="14">
-        <v>1763.5909999999999</v>
-      </c>
-      <c r="J7" s="14"/>
+      <c r="F7" s="8">
+        <v>200</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1021.545</v>
+      </c>
+      <c r="H7" s="8">
+        <v>7590.2929999999997</v>
+      </c>
+      <c r="I7" s="8">
+        <v>4401.7219999999998</v>
+      </c>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="5">
         <v>200</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="5">
         <v>1021.545</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="6">
         <v>5.4133333333333331</v>
       </c>
       <c r="D8">
         <v>450.08333333333331</v>
       </c>
-      <c r="F8" s="14">
-        <v>200</v>
-      </c>
-      <c r="G8" s="14">
-        <v>1021.545</v>
-      </c>
-      <c r="H8" s="14">
-        <v>7590.2929999999997</v>
-      </c>
-      <c r="I8" s="14">
-        <v>4401.7219999999998</v>
-      </c>
-      <c r="J8" s="14"/>
+      <c r="F8" s="4"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="7"/>
-      <c r="H9" s="9"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="F10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>13</v>
+      <c r="F11" s="8">
+        <v>10</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="H11" s="8">
+        <v>26.51</v>
+      </c>
+      <c r="I11" s="8">
+        <v>27.981818180000001</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.64200000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="14">
-        <v>10</v>
-      </c>
-      <c r="G12" s="14">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="H12" s="14">
-        <v>26.51</v>
-      </c>
-      <c r="I12" s="14">
-        <v>27.981818180000001</v>
-      </c>
-      <c r="J12" s="14">
-        <v>0.64200000000000002</v>
-      </c>
+      <c r="F12" s="8">
+        <v>30</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.996</v>
+      </c>
+      <c r="H12" s="8">
+        <v>166.39142860000001</v>
+      </c>
+      <c r="I12" s="8">
+        <v>536.22299999999996</v>
+      </c>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="5">
         <v>0.1575</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="5">
         <v>26.51</v>
       </c>
       <c r="D13">
         <v>48.75</v>
       </c>
-      <c r="F13" s="14">
-        <v>20</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14">
-        <v>1.282</v>
-      </c>
+      <c r="F13" s="8">
+        <v>50</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1.496</v>
+      </c>
+      <c r="H13" s="8">
+        <v>476.387</v>
+      </c>
+      <c r="I13" s="8">
+        <v>2511.306</v>
+      </c>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="5">
         <v>30</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="5">
         <v>32.475000000000001</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="5">
         <v>166.39142857142855</v>
       </c>
       <c r="D14">
         <v>508.85714285714283</v>
       </c>
-      <c r="F14" s="14">
-        <v>30</v>
-      </c>
-      <c r="G14" s="14">
-        <v>0.996</v>
-      </c>
-      <c r="H14" s="14">
-        <v>166.39142860000001</v>
-      </c>
-      <c r="I14" s="14">
-        <v>536.22299999999996</v>
-      </c>
-      <c r="J14" s="14"/>
+      <c r="F14" s="8">
+        <v>100</v>
+      </c>
+      <c r="G14" s="8">
+        <v>2.8239999999999998</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1752.1669999999999</v>
+      </c>
+      <c r="I14" s="8">
+        <v>17886.062999999998</v>
+      </c>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="5">
         <v>50</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="5">
         <v>40.000999999999991</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="5">
         <v>476.387</v>
       </c>
       <c r="D15">
         <v>147</v>
       </c>
-      <c r="F15" s="14">
-        <v>50</v>
-      </c>
-      <c r="G15" s="14">
-        <v>1.496</v>
-      </c>
-      <c r="H15" s="14">
-        <v>476.387</v>
-      </c>
-      <c r="I15" s="14">
-        <v>2511.306</v>
-      </c>
-      <c r="J15" s="14"/>
+      <c r="F15" s="8">
+        <v>200</v>
+      </c>
+      <c r="G15" s="8">
+        <v>5.4130000000000003</v>
+      </c>
+      <c r="H15" s="8">
+        <v>6512.6880000000001</v>
+      </c>
+      <c r="I15" s="8">
+        <v>18411.819</v>
+      </c>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="5">
         <v>100</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="5">
         <v>335.56299999999999</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="5">
         <v>1752.1670000000001</v>
       </c>
       <c r="D16">
         <v>135.5</v>
       </c>
-      <c r="F16" s="14">
-        <v>100</v>
-      </c>
-      <c r="G16" s="14">
-        <v>2.8239999999999998</v>
-      </c>
-      <c r="H16" s="14">
-        <v>1752.1669999999999</v>
-      </c>
-      <c r="I16" s="14">
-        <v>17886.062999999998</v>
-      </c>
-      <c r="J16" s="14"/>
+      <c r="F16" s="4"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="5">
         <v>200</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="5">
         <v>7590.2930000000006</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="5">
         <v>6512.6880000000001</v>
       </c>
       <c r="D17">
         <v>444.3</v>
       </c>
-      <c r="F17" s="14">
-        <v>200</v>
-      </c>
-      <c r="G17" s="14">
-        <v>5.4130000000000003</v>
-      </c>
-      <c r="H17" s="14">
-        <v>6512.6880000000001</v>
-      </c>
-      <c r="I17" s="14">
-        <v>18411.819</v>
-      </c>
-      <c r="J17" s="14"/>
+      <c r="F17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="F18" s="7"/>
-      <c r="H18" s="9"/>
+    <row r="18" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="F18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="F19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="F19" s="8">
+        <v>10</v>
+      </c>
+      <c r="G19" s="8">
+        <v>218.875</v>
+      </c>
+      <c r="H19" s="8">
+        <v>48.75</v>
+      </c>
+      <c r="I19" s="8">
+        <v>27.272727270000001</v>
+      </c>
+      <c r="J19" s="8">
+        <v>103</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="F20" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="F20" s="8">
+        <v>30</v>
+      </c>
+      <c r="G20" s="8">
+        <v>2.4350000000000001</v>
+      </c>
+      <c r="H20" s="8">
+        <v>508.85714289999999</v>
+      </c>
+      <c r="I20" s="8">
+        <v>31.4</v>
+      </c>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="14">
-        <v>10</v>
-      </c>
-      <c r="G21" s="14">
-        <v>218.875</v>
-      </c>
-      <c r="H21" s="14">
-        <v>48.75</v>
-      </c>
-      <c r="I21" s="14">
-        <v>27.272727270000001</v>
-      </c>
-      <c r="J21" s="14">
-        <v>103</v>
-      </c>
+      <c r="F21" s="8">
+        <v>50</v>
+      </c>
+      <c r="G21" s="8">
+        <v>412.1</v>
+      </c>
+      <c r="H21" s="8">
+        <v>147</v>
+      </c>
+      <c r="I21" s="8">
+        <v>40.5</v>
+      </c>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="5">
         <v>10</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="5">
         <v>4.3636363636363633E-2</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="5">
         <v>27.981818181818184</v>
       </c>
       <c r="D22">
         <v>27.272727272727273</v>
       </c>
-      <c r="F22" s="14">
-        <v>20</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14">
-        <v>199636</v>
-      </c>
+      <c r="F22" s="8">
+        <v>100</v>
+      </c>
+      <c r="G22" s="8">
+        <v>361.1</v>
+      </c>
+      <c r="H22" s="8">
+        <v>135.5</v>
+      </c>
+      <c r="I22" s="8">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="5">
         <v>30</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="5">
         <v>7.4060000000000015</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="5">
         <v>536.22300000000007</v>
       </c>
       <c r="D23">
         <v>31.4</v>
       </c>
-      <c r="F23" s="14">
-        <v>30</v>
-      </c>
-      <c r="G23" s="14">
-        <v>2.4350000000000001</v>
-      </c>
-      <c r="H23" s="14">
-        <v>508.85714289999999</v>
-      </c>
-      <c r="I23" s="14">
-        <v>31.4</v>
-      </c>
-      <c r="J23" s="14"/>
+      <c r="F23" s="8">
+        <v>200</v>
+      </c>
+      <c r="G23" s="8">
+        <v>450.08333329999999</v>
+      </c>
+      <c r="H23" s="8">
+        <v>444.3</v>
+      </c>
+      <c r="I23" s="8">
+        <v>169.7</v>
+      </c>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="5">
         <v>50</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="5">
         <v>66.602000000000004</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="5">
         <v>2511.3059999999996</v>
       </c>
       <c r="D24">
         <v>40.5</v>
       </c>
-      <c r="F24" s="14">
-        <v>50</v>
-      </c>
-      <c r="G24" s="14">
-        <v>412.1</v>
-      </c>
-      <c r="H24" s="14">
-        <v>147</v>
-      </c>
-      <c r="I24" s="14">
-        <v>40.5</v>
-      </c>
-      <c r="J24" s="14"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="5">
         <v>100</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="5">
         <v>1763.5909999999999</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="5">
         <v>17886.063000000002</v>
       </c>
       <c r="D25">
         <v>70.400000000000006</v>
       </c>
-      <c r="F25" s="14">
-        <v>100</v>
-      </c>
-      <c r="G25" s="14">
-        <v>361.1</v>
-      </c>
-      <c r="H25" s="14">
-        <v>135.5</v>
-      </c>
-      <c r="I25" s="14">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="J25" s="14"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="5">
         <v>200</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="5">
         <v>4401.7219999999998</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="5">
         <v>18411.818999999996</v>
       </c>
       <c r="D26">
         <v>169.7</v>
       </c>
-      <c r="F26" s="14">
-        <v>200</v>
-      </c>
-      <c r="G26" s="14">
-        <v>450.08333329999999</v>
-      </c>
-      <c r="H26" s="14">
-        <v>444.3</v>
-      </c>
-      <c r="I26" s="14">
-        <v>169.7</v>
-      </c>
-      <c r="J26" s="14"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="5">
         <v>10</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="5">
         <v>1.1900000000000001E-3</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="5">
         <v>0.6419999999999999</v>
       </c>
       <c r="D31">
         <v>103</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="5">
         <v>20</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="5">
         <v>13.168989999999999</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="5">
         <v>1.2819999999999998</v>
       </c>
       <c r="D32">
@@ -4758,17 +4875,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Results understanding/Plots_&_Averages.xlsx
+++ b/Results understanding/Plots_&_Averages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\N_Queen_Problem\Results understanding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shresht/Documents/Github_Projects/N_Queen_Problem/Results understanding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2870C979-79F7-4E0D-A7E4-AF5090AF8F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E4F8CD-27FE-4344-ADBF-39922517418A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7B0F1560-51C3-4647-9934-AFE4A65548A5}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="16440" xr2:uid="{7B0F1560-51C3-4647-9934-AFE4A65548A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -209,7 +209,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -661,6 +661,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -726,6 +781,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time/ Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -847,7 +957,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1299,6 +1409,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1364,6 +1529,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Memroy Utilised/ Byters</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1485,7 +1705,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1941,6 +2161,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2006,6 +2281,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Generations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4185,21 +4515,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB79973-BBA7-5248-BA62-CB3CDF5F17DD}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.375" customWidth="1"/>
-    <col min="2" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -4214,7 +4543,7 @@
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
     </row>
-    <row r="2" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
@@ -4238,7 +4567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -4267,7 +4596,7 @@
         <v>1.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>30</v>
       </c>
@@ -4294,7 +4623,7 @@
       </c>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>10</v>
       </c>
@@ -4321,7 +4650,7 @@
       </c>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>50</v>
       </c>
@@ -4348,7 +4677,7 @@
       </c>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>100</v>
       </c>
@@ -4375,7 +4704,7 @@
       </c>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>200</v>
       </c>
@@ -4391,7 +4720,7 @@
       <c r="F8" s="4"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -4405,7 +4734,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
@@ -4429,7 +4758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -4453,7 +4782,7 @@
         <v>0.64200000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -4480,7 +4809,7 @@
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -4507,7 +4836,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>30</v>
       </c>
@@ -4534,7 +4863,7 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>50</v>
       </c>
@@ -4561,7 +4890,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>100</v>
       </c>
@@ -4577,7 +4906,7 @@
       <c r="F16" s="4"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>200</v>
       </c>
@@ -4598,7 +4927,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -4618,7 +4947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>7</v>
       </c>
@@ -4641,7 +4970,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>8</v>
       </c>
@@ -4662,7 +4991,7 @@
       </c>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -4689,7 +5018,7 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>10</v>
       </c>
@@ -4716,7 +5045,7 @@
       </c>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>30</v>
       </c>
@@ -4743,7 +5072,7 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>50</v>
       </c>
@@ -4762,7 +5091,7 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>100</v>
       </c>
@@ -4781,7 +5110,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>200</v>
       </c>
@@ -4800,7 +5129,7 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -4810,7 +5139,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>9</v>
       </c>
@@ -4823,7 +5152,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>10</v>
       </c>
@@ -4831,7 +5160,7 @@
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
@@ -4845,7 +5174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>10</v>
       </c>
@@ -4859,7 +5188,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>20</v>
       </c>
